--- a/실무_엑셀_예제_파일/Chapter07/07-009.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-009.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA623A-5DFC-4754-98B5-82DED979A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289813FA-6444-4D5F-B3CD-B6BD343C734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="0" windowWidth="16668" windowHeight="12732" xr2:uid="{4CFA0FA4-5BB6-48DE-995B-6481797EA2FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4CFA0FA4-5BB6-48DE-995B-6481797EA2FA}"/>
   </bookViews>
   <sheets>
     <sheet name="별다방in제주" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -590,25 +581,25 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.4140625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -622,46 +613,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="E5" t="str">
+        <f>SUBSTITUTE(B5, CHAR(10), ", ")</f>
+        <v>딸기케잌, 초코케잌</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUBSTITUTE(C5, "천원", "") * 1000</f>
+        <v>4500</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6:E8" si="0">SUBSTITUTE(B6, CHAR(10), ", ")</f>
+        <v>아메리카노, 카페라떼</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F8" si="1">SUBSTITUTE(C6, "천원", "") * 1000</f>
+        <v>3500</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>바닐라라떼, 레몬에이드</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>퀘사디아, 프렌치토스트</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="E9" t="str">
-        <f t="shared" ref="E9" si="0">SUBSTITUTE(B9,CHAR(10),", ")</f>
+        <f t="shared" ref="E9" si="2">SUBSTITUTE(B9,CHAR(10),", ")</f>
         <v/>
       </c>
     </row>
